--- a/Qusetion/Question01/Qusetion01_1_4.xlsx
+++ b/Qusetion/Question01/Qusetion01_1_4.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MySQL\MySQL-2024-prarice\Section01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MySQL\MySQL-2024-prarice\Qusetion\Question01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="7600" windowHeight="4100"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18940" windowHeight="6070"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,136 +21,136 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <x:si>
+    <x:t>문제3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMP 테이블에서 JOB이 '사원'들만 SAL을 180으로 고치시오.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>job</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>deptName</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">NULL 허용 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>char(10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명 : EMP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만들어진 DEPT 테이블에 아래의 데이터를 삽입하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만들어 놓은 mydb에 아래와 같이 테이블을 만들어라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 형식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEPTNO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DNAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">열이름 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 형식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null 허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문제 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>char(5)</x:t>
+  </x:si>
+  <x:si>
     <x:t>deptno</x:t>
   </x:si>
   <x:si>
-    <x:t>deptName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sal</x:t>
+    <x:t>10, '경리부', '서울'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30, '영업부', '용인'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20, '인사부', '인천'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명 : DEPT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40, '전산부', '수원'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>만들어진 EMP 테이블에 아래의 데이터를 삽입하라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mydb를 만들고, 아래와 같이 테이블을 만들어라</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50, '설계팀', '부장', 500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20, '재무팀', '대리', 300</x:t>
   </x:si>
   <x:si>
     <x:t>10, '인사팀', '사원', 250</x:t>
   </x:si>
   <x:si>
-    <x:t>20, '재무팀', '대리', 300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>job</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 형식</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">NULL 허용 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(14)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null 허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만들어진 DEPT 테이블에 아래의 데이터를 삽입하라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만들어 놓은 mydb에 아래와 같이 테이블을 만들어라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LOC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>char(10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>char(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEPTNO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DNAME</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">열이름 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 형식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30, '영업부', '용인'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40, '전산부', '수원'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명 : DEPT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10, '경리부', '서울'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20, '인사부', '인천'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mydb를 만들고, 아래와 같이 테이블을 만들어라</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EMP 테이블에서 JOB이 '사원'들만 SAL을 180으로 고치시오.</x:t>
+    <x:t>EMP 테이블에서 '법무팀'을 삭제하시오.</x:t>
   </x:si>
   <x:si>
     <x:t>30, '법무팀', '과장', 350</x:t>
   </x:si>
   <x:si>
-    <x:t>50, '설계팀', '부장', 500</x:t>
-  </x:si>
-  <x:si>
     <x:t>40, '영업팀', '사원', 250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EMP 테이블에서 '법무팀'을 삭제하시오.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명 : EMP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문제 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>만들어진 EMP 테이블에 아래의 데이터를 삽입하라</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -218,7 +218,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -493,241 +496,241 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A2:D41"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A41" activeCellId="0" sqref="A41:A41"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A2" activeCellId="0" sqref="A2:A4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="11.66796875" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="11.66796875" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1">
+      <x:c r="A3" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1">
+      <x:c r="A4" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C9" s="2">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1">
+      <x:c r="A11" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1">
+      <x:c r="A12" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1">
+      <x:c r="A13" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1">
+      <x:c r="A14" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1">
+      <x:c r="A15" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1">
+      <x:c r="A21" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C24" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:1">
+      <x:c r="A29" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1">
-      <x:c r="A3" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1">
-      <x:c r="A4" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="A6" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="A7" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="1" t="s">
+    <x:row r="30" spans="1:1">
+      <x:c r="A30" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:1">
+      <x:c r="A31" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:1">
+      <x:c r="A32" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:1">
+      <x:c r="A33" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:1">
+      <x:c r="A34" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:1">
+      <x:c r="A35" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:1">
+      <x:c r="A37" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:1">
+      <x:c r="A38" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:1">
+      <x:c r="A40" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C9" s="1">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:1">
-      <x:c r="A11" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:1">
-      <x:c r="A12" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:1">
-      <x:c r="A13" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:1">
-      <x:c r="A14" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:1">
-      <x:c r="A15" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:1">
-      <x:c r="A16" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:1">
-      <x:c r="A18" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:1">
-      <x:c r="A19" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:1">
-      <x:c r="A21" t="s">
+    </x:row>
+    <x:row r="41" spans="1:1">
+      <x:c r="A41" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="A23" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B23" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C23" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D23" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:3">
-      <x:c r="A24" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C24" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:3">
-      <x:c r="A25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B25" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C25" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:3">
-      <x:c r="A26" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B26" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C26" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:3">
-      <x:c r="A27" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B27" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C27" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:1">
-      <x:c r="A29" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:1">
-      <x:c r="A30" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:1">
-      <x:c r="A31" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:1">
-      <x:c r="A32" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:1">
-      <x:c r="A33" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:1">
-      <x:c r="A34" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:1">
-      <x:c r="A35" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:1">
-      <x:c r="A37" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:1">
-      <x:c r="A38" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:1">
-      <x:c r="A40" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:1">
-      <x:c r="A41" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>